--- a/docs/so-good-apartments/underwriting-templates/pfs_template.xlsx
+++ b/docs/so-good-apartments/underwriting-templates/pfs_template.xlsx
@@ -1,123 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Personal Financial Statement" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Guarantor Name</t>
-  </si>
-  <si>
-    <t>Statement Date</t>
-  </si>
-  <si>
-    <t>Cash &amp; Equivalents</t>
-  </si>
-  <si>
-    <t>Marketable Securities</t>
-  </si>
-  <si>
-    <t>Real Estate Holdings</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
-    <t>Liabilities (Mortgages)</t>
-  </si>
-  <si>
-    <t>Net Worth</t>
-  </si>
-  <si>
-    <t>Est. Credit Score</t>
-  </si>
-  <si>
-    <t>Mike Hoque</t>
-  </si>
-  <si>
-    <t>12/31/2024</t>
-  </si>
-  <si>
-    <t>$4500000</t>
-  </si>
-  <si>
-    <t>$1200000</t>
-  </si>
-  <si>
-    <t>$75000000</t>
-  </si>
-  <si>
-    <t>$80700000</t>
-  </si>
-  <si>
-    <t>$35000000</t>
-  </si>
-  <si>
-    <t>$45700000</t>
-  </si>
-  <si>
-    <t>765</t>
-  </si>
-  <si>
-    <t>Audited</t>
-  </si>
-  <si>
-    <t>Liquidity Range: $1M-$5M</t>
-  </si>
-  <si>
-    <t>Net Worth Range: $25M-$50M</t>
-  </si>
-  <si>
-    <t>Range: 750-799</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F4E78"/>
+        <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">
@@ -129,35 +82,105 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,109 +468,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PERSONAL FINANCIAL STATEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>As of {{ currentDate }}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>{{ guarantorName }}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Amount ($)</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Amount ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Cash in Bank</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>{{ cashInBank }}</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Notes Payable</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>{{ notesPayable }}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Marketable Securities</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>{{ marketableSecurities }}</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Mortgages Payable</t>
+        </is>
+      </c>
+      <c r="D8" s="7">
+        <f>E24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Real Estate Owned</t>
+        </is>
+      </c>
+      <c r="B9" s="7">
+        <f>D24</f>
+        <v/>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Other Liabilities</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>{{ otherLiabilities }}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Retirement Accounts</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>{{ retirementAccounts }}</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Other Assets</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>{{ otherAssets }}</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
+      </c>
+      <c r="B12" s="9">
+        <f>SUM(B7:B11)</f>
+        <v/>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM(D7:D11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>NET WORTH</t>
+        </is>
+      </c>
+      <c r="D13" s="11">
+        <f>B12-D12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>CONTINGENT LIABILITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>As Endorser or Co-Maker</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>{{ contingentCoMaker }}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Legal Claims &amp; Judgments</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>{{ contingentLegal }}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Total Contingent Liabilities</t>
+        </is>
+      </c>
+      <c r="D18" s="9">
+        <f>SUM(D16:D17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>SCHEDULE OF REAL ESTATE OWNED</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Property Type</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>Date Acquired</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Mortgage Balance</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>Net Equity</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>{{ sreo_row }}</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>{{ sreo_row }}</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>{{ sreo_row }}</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>{{ sreo_row }}</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>{{ sreo_row }}</t>
+        </is>
+      </c>
+      <c r="F22" s="7">
+        <f>D22-E22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr"/>
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="6" t="inlineStr"/>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7">
+        <f>D23-E23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="D24" s="9">
+        <f>SUM(D22:D23)</f>
+        <v/>
+      </c>
+      <c r="E24" s="9">
+        <f>SUM(E22:E23)</f>
+        <v/>
+      </c>
+      <c r="F24" s="9">
+        <f>SUM(F22:F23)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>